--- a/Dicionario de dados.xlsx
+++ b/Dicionario de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto BD - 2021\Projeto-BD-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9252CA-4148-4F1D-AC2B-E9B334FE3E7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0137FC-8BCB-4393-8E06-DEAA873EF50B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5195B407-2CCD-4B99-8255-6134AF2D1150}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="125">
   <si>
     <t>Atributo</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Código do livro</t>
   </si>
   <si>
-    <t>Descrição para registro e identificação</t>
-  </si>
-  <si>
     <t>Entidade: endereco_usuario</t>
   </si>
   <si>
@@ -388,6 +385,21 @@
   </si>
   <si>
     <t>Hora atual</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Localização da estante</t>
+  </si>
+  <si>
+    <t>idioma</t>
+  </si>
+  <si>
+    <t>Sigla do idioma, seguindo o padrão xx-xx</t>
+  </si>
+  <si>
+    <t>Descrição/observação para registro</t>
   </si>
 </sst>
 </file>
@@ -806,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E244827-FB89-4C16-A81E-F874B7B9AA54}">
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J120" sqref="J120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
@@ -863,7 +875,7 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -917,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>4</v>
@@ -935,7 +947,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -986,7 +998,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1004,7 +1016,7 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,12 +1034,12 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>9</v>
@@ -1040,7 +1052,7 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>4</v>
@@ -1093,7 +1105,7 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18" s="6"/>
     </row>
@@ -1144,7 +1156,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1162,7 +1174,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1180,13 +1192,13 @@
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>9</v>
@@ -1199,7 +1211,7 @@
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1212,7 +1224,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1234,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>4</v>
@@ -1242,7 +1254,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>7</v>
@@ -1267,12 +1279,12 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>9</v>
@@ -1285,12 +1297,12 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>9</v>
@@ -1303,12 +1315,12 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>9</v>
@@ -1321,12 +1333,12 @@
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>9</v>
@@ -1337,12 +1349,12 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>9</v>
@@ -1355,12 +1367,12 @@
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>9</v>
@@ -1373,12 +1385,12 @@
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>9</v>
@@ -1391,12 +1403,12 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>9</v>
@@ -1409,7 +1421,7 @@
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1422,7 +1434,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1444,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>4</v>
@@ -1452,7 +1464,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>7</v>
@@ -1480,7 +1492,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>9</v>
@@ -1493,12 +1505,12 @@
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>9</v>
@@ -1511,12 +1523,12 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>9</v>
@@ -1529,12 +1541,12 @@
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>9</v>
@@ -1545,12 +1557,12 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>9</v>
@@ -1563,12 +1575,12 @@
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>9</v>
@@ -1581,12 +1593,12 @@
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>9</v>
@@ -1599,12 +1611,12 @@
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>9</v>
@@ -1617,7 +1629,7 @@
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,7 +1664,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>4</v>
@@ -1670,7 +1682,7 @@
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F54" s="6"/>
     </row>
@@ -1689,7 +1701,7 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>4</v>
@@ -1742,7 +1754,7 @@
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>29</v>
@@ -1796,7 +1808,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>4</v>
@@ -1814,7 +1826,7 @@
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F64" s="6"/>
     </row>
@@ -1833,7 +1845,7 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1868,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>4</v>
@@ -1886,13 +1898,13 @@
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>9</v>
@@ -1902,15 +1914,15 @@
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>9</v>
@@ -1920,15 +1932,15 @@
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>9</v>
@@ -1938,10 +1950,10 @@
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1973,7 +1985,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,7 +2036,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>4</v>
@@ -2042,13 +2054,13 @@
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>9</v>
@@ -2058,15 +2070,15 @@
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>9</v>
@@ -2076,10 +2088,10 @@
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,7 +2107,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2130,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>4</v>
@@ -2148,7 +2160,7 @@
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F86" s="6"/>
     </row>
@@ -2196,15 +2208,15 @@
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>9</v>
@@ -2214,10 +2226,10 @@
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2233,7 +2245,7 @@
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2268,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>4</v>
@@ -2286,13 +2298,13 @@
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>9</v>
@@ -2305,7 +2317,7 @@
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2340,7 +2352,7 @@
         <v>3</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>4</v>
@@ -2358,7 +2370,7 @@
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F100" s="6"/>
     </row>
@@ -2412,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>4</v>
@@ -2431,7 +2443,7 @@
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2447,7 +2459,7 @@
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2482,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>4</v>
@@ -2535,7 +2547,7 @@
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -2553,29 +2565,30 @@
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="D114" s="6">
+        <v>5</v>
+      </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>123</v>
+      </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>9</v>
@@ -2586,127 +2599,144 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>111</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M115" s="2"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
+      <c r="A116" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B119" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C119" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F118" s="5" t="s">
+      <c r="E119" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F119" s="6"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>113</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F120" s="6"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" s="6">
-        <v>255</v>
-      </c>
-      <c r="E121" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="F121" s="6" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="D122" s="6">
+        <v>255</v>
+      </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A103:F103"/>
     <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A118:F118"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="A67:F67"/>

--- a/Dicionario de dados.xlsx
+++ b/Dicionario de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto BD - 2021\Projeto-BD-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0137FC-8BCB-4393-8E06-DEAA873EF50B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00C8DAA-9662-4039-BD94-1AC44384E1AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5195B407-2CCD-4B99-8255-6134AF2D1150}"/>
   </bookViews>
@@ -387,9 +387,6 @@
     <t>Hora atual</t>
   </si>
   <si>
-    <t>Sala</t>
-  </si>
-  <si>
     <t>Localização da estante</t>
   </si>
   <si>
@@ -400,6 +397,9 @@
   </si>
   <si>
     <t>Descrição/observação para registro</t>
+  </si>
+  <si>
+    <t>Local</t>
   </si>
 </sst>
 </file>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E244827-FB89-4C16-A81E-F874B7B9AA54}">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="J120" sqref="J120"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>9</v>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2570,7 +2570,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>9</v>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">

--- a/Dicionario de dados.xlsx
+++ b/Dicionario de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto BD - 2021\Projeto-BD-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00C8DAA-9662-4039-BD94-1AC44384E1AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A7CF4-009E-4AEA-887A-EF8D3DD1151A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5195B407-2CCD-4B99-8255-6134AF2D1150}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="125">
   <si>
     <t>Atributo</t>
   </si>
@@ -492,9 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,6 +499,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E244827-FB89-4C16-A81E-F874B7B9AA54}">
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,1906 +834,1929 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
         <v>255</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
         <v>255</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
         <v>12</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
         <v>14</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5">
         <v>100</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5">
         <v>255</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5">
         <v>12</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5">
         <v>14</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
         <v>70</v>
       </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5">
         <v>100</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5">
         <v>50</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="6">
-        <v>10</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="B32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5">
         <v>150</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
+      <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="B34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5">
         <v>50</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="B35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5">
         <v>50</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="B36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5">
         <v>50</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="B37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5">
         <v>2</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="C41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="C42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="6">
+      <c r="B43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="5">
         <v>50</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="6">
-        <v>10</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6" t="s">
+      <c r="B44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="5">
+        <v>10</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="6">
+      <c r="B45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="5">
         <v>150</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6" t="s">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6" t="s">
+      <c r="B46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="6">
+      <c r="B47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="5">
         <v>50</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6" t="s">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="6">
+      <c r="B48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="5">
         <v>50</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6" t="s">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="6">
+      <c r="B49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="5">
         <v>50</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6" t="s">
+      <c r="E49" s="5"/>
+      <c r="F49" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="6">
+      <c r="B50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="5">
         <v>2</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6" t="s">
+      <c r="E50" s="5"/>
+      <c r="F50" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
+      <c r="C54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F54" s="6"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="6">
+      <c r="B55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="5">
         <v>255</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6" t="s">
+      <c r="E55" s="5"/>
+      <c r="F55" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6" t="s">
+      <c r="C59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6" t="s">
+      <c r="C60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6" t="s">
+      <c r="C64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F64" s="6"/>
+      <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="6">
+      <c r="B65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="5">
         <v>255</v>
       </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6" t="s">
+      <c r="E65" s="5"/>
+      <c r="F65" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6" t="s">
+      <c r="C69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F69" s="6"/>
+      <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="6" t="s">
+      <c r="B70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6" t="s">
+      <c r="D70" s="5"/>
+      <c r="E70" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="6" t="s">
+      <c r="B71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6" t="s">
+      <c r="D71" s="5"/>
+      <c r="E71" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="B72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6" t="s">
+      <c r="D72" s="5"/>
+      <c r="E72" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6" t="s">
+      <c r="B73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6" t="s">
+      <c r="B74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6" t="s">
+      <c r="B75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6" t="s">
+      <c r="C79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F79" s="6"/>
+      <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="6" t="s">
+      <c r="B80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6" t="s">
+      <c r="D80" s="5"/>
+      <c r="E80" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="6" t="s">
+      <c r="B81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6" t="s">
+      <c r="D81" s="5"/>
+      <c r="E81" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6" t="s">
+      <c r="B82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6" t="s">
+      <c r="C86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F86" s="6"/>
+      <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6" t="s">
+      <c r="B87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="6" t="s">
+      <c r="B88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6" t="s">
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="6" t="s">
+      <c r="B89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6" t="s">
+      <c r="D89" s="5"/>
+      <c r="E89" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="6" t="s">
+      <c r="B90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6" t="s">
+      <c r="D90" s="5"/>
+      <c r="E90" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6" t="s">
+      <c r="B91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6" t="s">
+      <c r="C95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F95" s="6"/>
+      <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="6">
+      <c r="B96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="5">
         <v>255</v>
       </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6" t="s">
+      <c r="E96" s="5"/>
+      <c r="F96" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6" t="s">
+      <c r="C100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F100" s="6"/>
+      <c r="F100" s="5"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="6">
+      <c r="B101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="5">
         <v>255</v>
       </c>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6" t="s">
+      <c r="E101" s="5"/>
+      <c r="F101" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6" t="s">
+      <c r="C105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6" t="s">
+      <c r="C106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6" t="s">
+      <c r="C110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111" s="6">
+      <c r="C111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="5">
         <v>100</v>
       </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6" t="s">
+      <c r="E111" s="5"/>
+      <c r="F111" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="6" t="s">
+      <c r="B112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6" t="s">
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" s="6">
+      <c r="B113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="5">
         <v>255</v>
       </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6" t="s">
+      <c r="E113" s="5"/>
+      <c r="F113" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="6">
+      <c r="B114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="5">
         <v>5</v>
       </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6" t="s">
+      <c r="E114" s="5"/>
+      <c r="F114" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6" t="s">
+      <c r="B115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5" t="s">
         <v>109</v>
       </c>
       <c r="M115" s="2"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6" t="s">
+      <c r="B116" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F119" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6" t="s">
+      <c r="C120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F120" s="6"/>
+      <c r="F120" s="5"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="6" t="s">
+      <c r="B122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6" t="s">
+      <c r="D122" s="5"/>
+      <c r="E122" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="F122" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122" s="6">
+      <c r="B123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="5">
         <v>255</v>
       </c>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6" t="s">
+      <c r="E123" s="5"/>
+      <c r="F123" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6" t="s">
+      <c r="B124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A57:F57"/>
     <mergeCell ref="A103:F103"/>
     <mergeCell ref="A108:F108"/>
     <mergeCell ref="A118:F118"/>
@@ -2745,11 +2768,6 @@
     <mergeCell ref="A93:F93"/>
     <mergeCell ref="A98:F98"/>
     <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A57:F57"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Dicionario de dados.xlsx
+++ b/Dicionario de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto BD - 2021\Projeto-BD-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD16091-EC10-48CD-A912-4D920B9FB341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DBA7FF-6E1E-4FD6-93BA-BDFA464C85D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5195B407-2CCD-4B99-8255-6134AF2D1150}"/>
   </bookViews>
